--- a/data/trans_bre/P74B-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P74B-Estudios-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>71.70150577443069</v>
+        <v>71.66519161967669</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>55.33279111837681</v>
+        <v>55.18614291518644</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54.53094324169408</v>
+        <v>54.17366099111657</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>4.553918278867203</v>
+        <v>4.684830942044939</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>2.337613574275305</v>
+        <v>2.366518521321288</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>2.332389808224922</v>
+        <v>2.388182279055191</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>79.38112798038085</v>
+        <v>79.81934193395882</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>65.30985290103372</v>
+        <v>65.29004490660935</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>65.24494894672588</v>
+        <v>65.31773446055131</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7.29738941299919</v>
+        <v>7.649603062698951</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.808195629434111</v>
+        <v>3.839052076055015</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4.063399868841974</v>
+        <v>4.115431036022617</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>52.18225201508028</v>
+        <v>51.30047604528808</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>35.14124809181914</v>
+        <v>34.61201960343879</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>39.42769471799443</v>
+        <v>39.29344469940111</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>12.91533113900748</v>
+        <v>12.65101294459217</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>4.065579356221684</v>
+        <v>4.016702150098451</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>3.676314792267718</v>
+        <v>3.856058956515978</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>67.97456878499423</v>
+        <v>68.10930885734575</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>47.34154629673596</v>
+        <v>47.04014199918862</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>50.07028259736017</v>
+        <v>50.01716165632237</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>36.10842589194061</v>
+        <v>39.32321152655547</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>8.634394841304509</v>
+        <v>8.938456704489253</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>6.754522144635479</v>
+        <v>6.925182649629981</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>53.72866947287167</v>
+        <v>50.14563846503653</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>27.08845473229958</v>
+        <v>28.4175127773234</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19.33638680203777</v>
+        <v>20.09624422598904</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>5.419302828643371</v>
+        <v>5.295254365154613</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1.393799627282033</v>
+        <v>1.46978733779606</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1.045253543742929</v>
+        <v>1.077703373487641</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>90.78361609670814</v>
+        <v>89.81387058047717</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>62.36819247454075</v>
+        <v>64.06209867506159</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>49.59003576060459</v>
+        <v>49.02850806141745</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>29.04547420186315</v>
+        <v>27.92072781872197</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>8.724599021340715</v>
+        <v>9.252915114483985</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>4.777494149685054</v>
+        <v>4.959026775880414</v>
       </c>
     </row>
     <row r="13">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>71.87719752796218</v>
+        <v>71.90171117820933</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>51.76223480199781</v>
+        <v>51.41570409690181</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49.86340889156586</v>
+        <v>50.34711337962056</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8.161821327167939</v>
+        <v>8.299817579688387</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3.592986310903133</v>
+        <v>3.591950945751054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3.54467547119151</v>
+        <v>3.567724503775069</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>78.72503023335814</v>
+        <v>78.53035722692705</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>59.24307295185368</v>
+        <v>59.15832894344501</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>57.08883396074194</v>
+        <v>57.41108054561387</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12.38752747464918</v>
+        <v>12.46162927480072</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5.297083089389702</v>
+        <v>5.393075958079804</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.099866171716453</v>
+        <v>5.151151103427442</v>
       </c>
     </row>
     <row r="16">
